--- a/ig/sd-jeu-de-valeur-phase-de-lessai/StructureDefinition-eclaire-site-contact-name.xlsx
+++ b/ig/sd-jeu-de-valeur-phase-de-lessai/StructureDefinition-eclaire-site-contact-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T10:17:49+00:00</t>
+    <t>2023-07-28T13:00:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-jeu-de-valeur-phase-de-lessai/StructureDefinition-eclaire-site-contact-name.xlsx
+++ b/ig/sd-jeu-de-valeur-phase-de-lessai/StructureDefinition-eclaire-site-contact-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T13:00:23+00:00</t>
+    <t>2023-07-28T15:15:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
